--- a/Code/Results/Cases/Case_0_146/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_146/res_line/pl_mw.xlsx
@@ -424,19 +424,19 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.04950662906460934</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.1334264515024159</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>2.597751037364532</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>2.909927153794172</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002404886793224931</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -454,7 +454,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.75838216993412</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0.04365020293714394</v>
+      </c>
+      <c r="D3">
+        <v>0.1296742398747597</v>
+      </c>
+      <c r="E3">
+        <v>2.259947222581957</v>
+      </c>
+      <c r="F3">
+        <v>2.777303685018097</v>
+      </c>
+      <c r="G3">
+        <v>0.002430891890358417</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>9.435451864317145</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0.04012623594238107</v>
+      </c>
+      <c r="D4">
+        <v>0.1287214598191895</v>
+      </c>
+      <c r="E4">
+        <v>2.053341832025637</v>
+      </c>
+      <c r="F4">
+        <v>2.710382439807773</v>
+      </c>
+      <c r="G4">
+        <v>0.00244739224091432</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>8.628481855390646</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0.03870641485112003</v>
+      </c>
+      <c r="D5">
+        <v>0.1286492860589874</v>
+      </c>
+      <c r="E5">
+        <v>1.969294890473748</v>
+      </c>
+      <c r="F5">
+        <v>2.686523095377225</v>
+      </c>
+      <c r="G5">
+        <v>0.002454253875228632</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>8.300706646891456</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.03847158269817896</v>
+      </c>
+      <c r="D6">
+        <v>0.1286557314357424</v>
+      </c>
+      <c r="E6">
+        <v>1.955346247699993</v>
+      </c>
+      <c r="F6">
+        <v>2.682760683577015</v>
+      </c>
+      <c r="G6">
+        <v>0.00245540165508819</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>8.246337238987735</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.04010702440766067</v>
+      </c>
+      <c r="D7">
+        <v>0.1287192367105945</v>
+      </c>
+      <c r="E7">
+        <v>2.052207823744737</v>
+      </c>
+      <c r="F7">
+        <v>2.710047152892855</v>
+      </c>
+      <c r="G7">
+        <v>0.002447484217333581</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>8.62405735875933</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.0474712499640475</v>
+      </c>
+      <c r="D8">
+        <v>0.1318375203378537</v>
+      </c>
+      <c r="E8">
+        <v>2.481072846460279</v>
+      </c>
+      <c r="F8">
+        <v>2.86103929402887</v>
+      </c>
+      <c r="G8">
+        <v>0.002413744917807947</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>10.30096577217699</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0.06257448242786268</v>
+      </c>
+      <c r="D9">
+        <v>0.1498294429864302</v>
+      </c>
+      <c r="E9">
+        <v>3.331364290941622</v>
+      </c>
+      <c r="F9">
+        <v>3.283842331975251</v>
+      </c>
+      <c r="G9">
+        <v>0.002351638045713081</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>13.64490258999552</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.07421474015471574</v>
+      </c>
+      <c r="D10">
+        <v>0.1720540439681884</v>
+      </c>
+      <c r="E10">
+        <v>3.966281059843539</v>
+      </c>
+      <c r="F10">
+        <v>3.689352110911102</v>
+      </c>
+      <c r="G10">
+        <v>0.002308214802861068</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>16.156463345909</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0.07966338627186076</v>
+      </c>
+      <c r="D11">
+        <v>0.1845630841120851</v>
+      </c>
+      <c r="E11">
+        <v>4.258502481555524</v>
+      </c>
+      <c r="F11">
+        <v>3.898835179518642</v>
+      </c>
+      <c r="G11">
+        <v>0.002288873676740277</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>17.31626464927223</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0.08175198438341624</v>
+      </c>
+      <c r="D12">
+        <v>0.189686752253607</v>
+      </c>
+      <c r="E12">
+        <v>4.369757072240645</v>
+      </c>
+      <c r="F12">
+        <v>3.982172144917683</v>
+      </c>
+      <c r="G12">
+        <v>0.002281602892197243</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>17.75843850547642</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0.08130098597342794</v>
+      </c>
+      <c r="D13">
+        <v>0.1885653602874697</v>
+      </c>
+      <c r="E13">
+        <v>4.345767999061877</v>
+      </c>
+      <c r="F13">
+        <v>3.964038607333919</v>
+      </c>
+      <c r="G13">
+        <v>0.002283166518458557</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>17.6630672596641</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0.07983468927619697</v>
+      </c>
+      <c r="D14">
+        <v>0.1849766035909397</v>
+      </c>
+      <c r="E14">
+        <v>4.26764283696059</v>
+      </c>
+      <c r="F14">
+        <v>3.905608459551047</v>
+      </c>
+      <c r="G14">
+        <v>0.002288274473833662</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>17.35257972902969</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0.07893993936966126</v>
+      </c>
+      <c r="D15">
+        <v>0.1828300763400819</v>
+      </c>
+      <c r="E15">
+        <v>4.219870068513217</v>
+      </c>
+      <c r="F15">
+        <v>3.870353605659943</v>
+      </c>
+      <c r="G15">
+        <v>0.002291409993316269</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>17.1628013007076</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0.07386201574770723</v>
+      </c>
+      <c r="D16">
+        <v>0.1712882893248775</v>
+      </c>
+      <c r="E16">
+        <v>3.947260997876242</v>
+      </c>
+      <c r="F16">
+        <v>3.676199561389296</v>
+      </c>
+      <c r="G16">
+        <v>0.002309486588274061</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>16.08105652523835</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0.0707883770895279</v>
+      </c>
+      <c r="D17">
+        <v>0.1648505081099358</v>
+      </c>
+      <c r="E17">
+        <v>3.780966853568941</v>
+      </c>
+      <c r="F17">
+        <v>3.563779316707894</v>
+      </c>
+      <c r="G17">
+        <v>0.002320677515721847</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>15.42220290293892</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0.0690347292758986</v>
+      </c>
+      <c r="D18">
+        <v>0.1613707061558785</v>
+      </c>
+      <c r="E18">
+        <v>3.685631152960468</v>
+      </c>
+      <c r="F18">
+        <v>3.501445423786436</v>
+      </c>
+      <c r="G18">
+        <v>0.002327153446209465</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>15.04484112802487</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0.06844332446996759</v>
+      </c>
+      <c r="D19">
+        <v>0.1602296134566643</v>
+      </c>
+      <c r="E19">
+        <v>3.653402658582252</v>
+      </c>
+      <c r="F19">
+        <v>3.480728078139975</v>
+      </c>
+      <c r="G19">
+        <v>0.002329352991523752</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>14.91733235750064</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0.07111407620692489</v>
+      </c>
+      <c r="D20">
+        <v>0.1655124491819606</v>
+      </c>
+      <c r="E20">
+        <v>3.798636082476833</v>
+      </c>
+      <c r="F20">
+        <v>3.575502930681012</v>
+      </c>
+      <c r="G20">
+        <v>0.002319482206311486</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>15.49217066508874</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0.08026466146711186</v>
+      </c>
+      <c r="D21">
+        <v>0.1860198548886274</v>
+      </c>
+      <c r="E21">
+        <v>4.290572967038941</v>
+      </c>
+      <c r="F21">
+        <v>3.922658451445102</v>
+      </c>
+      <c r="G21">
+        <v>0.002286772748561833</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>17.4436922464169</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0.08639442197400626</v>
+      </c>
+      <c r="D22">
+        <v>0.2016999643361714</v>
+      </c>
+      <c r="E22">
+        <v>4.615620175672632</v>
+      </c>
+      <c r="F22">
+        <v>4.17314568416009</v>
+      </c>
+      <c r="G22">
+        <v>0.002265702518538094</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>18.73678230144424</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0.08310802089911817</v>
+      </c>
+      <c r="D23">
+        <v>0.193107728751869</v>
+      </c>
+      <c r="E23">
+        <v>4.441773273060221</v>
+      </c>
+      <c r="F23">
+        <v>4.037147601215167</v>
+      </c>
+      <c r="G23">
+        <v>0.002276922136782429</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>18.04483991481521</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0.07096678605216766</v>
+      </c>
+      <c r="D24">
+        <v>0.1652124992228323</v>
+      </c>
+      <c r="E24">
+        <v>3.790646994191718</v>
+      </c>
+      <c r="F24">
+        <v>3.570195557695683</v>
+      </c>
+      <c r="G24">
+        <v>0.002320022474249579</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>15.46053384762268</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.05840409480542519</v>
+      </c>
+      <c r="D25">
+        <v>0.1435186792202785</v>
+      </c>
+      <c r="E25">
+        <v>3.099904823658704</v>
+      </c>
+      <c r="F25">
+        <v>3.154177390700426</v>
+      </c>
+      <c r="G25">
+        <v>0.002368031419873541</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>12.73231084872128</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
